--- a/spring-boot-rest-2/src/main/resources/excelread.xlsx
+++ b/spring-boot-rest-2/src/main/resources/excelread.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashutosh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashutosh\git\spring-boot-rest-2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01B40CAC-BC01-4F6B-93AC-ABA6A869A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E416AA-867C-4C46-AA18-1CCCB3B3FB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F7A3E4A-F0DD-4C4D-9026-763CD24C021F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Emp</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Architect</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>SPM</t>
   </si>
 </sst>
 </file>
@@ -417,13 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D04DC-891E-4369-B5D7-7A3A2E82454D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -478,6 +487,17 @@
       </c>
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
